--- a/biology/Zoologie/Dolomedes_senilis/Dolomedes_senilis.xlsx
+++ b/biology/Zoologie/Dolomedes_senilis/Dolomedes_senilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes senilis est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes senilis est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Japon à Hokkaidō, en Chine, en Mongolie et en Russie en Sibérie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Japon à Hokkaidō, en Chine, en Mongolie et en Russie en Sibérie,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 5,7 mm de long sur 4,6 mm et l'abdomen 8 mm de long[3].
-Les mâles mesurent de 15,25 à 16,50 mm et les femelles de 18,25 à 19,63 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 5,7 mm de long sur 4,6 mm et l'abdomen 8 mm de long.
+Les mâles mesurent de 15,25 à 16,50 mm et les femelles de 18,25 à 19,63 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Simon en 1880.
-Dolomedes strandi[4] a été placée en synonymie par Zhang, Zhu et Song en 2004[5].
+Dolomedes strandi a été placée en synonymie par Zhang, Zhu et Song en 2004.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1880 : « Études arachnologiques. 11e Mémoire. XVII. Arachnides recueilles aux environs de Pékin par M. V. Collin de Plancy. » Annales de la Société Entomologique de France, sér. 5, vol. 10, p. 97-128 (texte intégral).</t>
         </is>
